--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Test_py\Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12315"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Keywords" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,18 +408,1595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mansion tour beverly hills</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>car elevator</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>alex warren house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mansion tours</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>oceanfront mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>six star hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nyc vlogs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mansion tour usa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dream home</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Christian Louboutins</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>los angeles house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>bel air mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>new york city luxury homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>bel air modern mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>luxury real estate video</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>unique home</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ryan Serhant</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>250 million dollar house</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>most expensive mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>miami beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>home tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vommuli</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mega mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>texas mansions</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>luxury mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>modern home</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>miami mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>million dollar listing new york</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>los angeles mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>st regis maldives</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>los angeles man</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>luxury</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>nevelhaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Millionaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CadillacXT6</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>miami</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>luxury homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>modern farmhouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>architectural digest</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>miami beach mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>paradise</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>california mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>most expensive hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dream closets</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>new york city luxury real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>celebrity home tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ryan serhant</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>atlanta mansions</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>texas mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>best mansions of the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>japanese inspired</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>dream garage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LG CineBeam 4K Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>nyc apartment tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>luxury houses in california</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>alex waarren</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>bel air mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Million Dollar Listing</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>shoe collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>beverly hills mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>discovery channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>st regis</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>puff daddy home</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LUXURY REAL ESTATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>real estate agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>logan paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mansion video tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Most Expensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>new york city luxury apartments</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>miami luxury homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>nyc vlog</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>best mansion in the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>celebrity house</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>la house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>luxury real estate agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>trip report</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ryan serhant vlogs</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vlogs</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>maldives</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>producer michael</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Theresa Roemer</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>most expensive homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Luxury house</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>billion dollar broker</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>bruce makowsky</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>lady gaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>florida mega mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>estate tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>home makeover</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>la mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>grant cardone</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>dream garage tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>texas mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>los angeles modern mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ceo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ultra luxury homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>most expensive house</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>924 bel air road house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>usa mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>brentwood mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>chelsea nyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>miami real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>california mega mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ryan serhant real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>texas real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mega mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ryan Serhant Vlogs</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>louis vuitton</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>travel vlog</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>st. regis maldives</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>florida (us state)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>modern house</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>luxury home</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>master bathrooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>encino</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>924 bel air road</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>florida luxury homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ryans serhant</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>luxury travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>luxury listings</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mindset</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>mdlnyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>million dollar listing</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>new york city real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Cadillac</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>sell it like serhant</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>los angeles mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>kouvr house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>texas home tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ryan serhant vlog</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>diddy beverly hills mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>logan paul house</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>nyc townhouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>micro apartment new york</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>marriott</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>starwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>luxury mansions</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Luxury interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>texas</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>st regis maldives vommuli</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>waterfront</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Interior</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>bel air</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>real estate investing</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>japanese design</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>five star hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>micro apartment tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>bruce makowsky house</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>los angeles mansion for sale</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>HU85LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>luxury house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>real estate market 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Million Dollar Listing New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>luxury house</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>wanderlust</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>hollywood hills modern mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>real estate 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>upstate real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>modern house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>modern mega mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>miami beach florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Ryan serhant</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>mansiontour</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>pacaso homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Billionaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>upstate ny</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>luxury real estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>nyc</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>california mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>closet tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>beverly hills house</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>unique homes in the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>bel air mega mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>luxury homes dallas tx</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>waterfront mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>beverly hills modern mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>celebrity homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>apartments in new york city</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>master bedrooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>LG CineBeam</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>real estate trends</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>garyvee</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>luxury real estate tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>expensive mansion tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>expensive house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>modern mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>kitchen renovations</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>luxury home tours</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>best homes in the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>gateway canyon</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>upstate new york</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>erik conover</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Home Theater</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>beverly hills mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>los angeles</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ryan serhant house tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>biggest mansions</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>diddy mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>united states mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>puff diddy</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>luxury home tour</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>hollywood hills mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>real estate tricks</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>vacation homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>los angeles mega mansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>p diddy house</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>beverly hills</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>mega mansions</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Husdon Yards</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>apartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>most expensive house in the world</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>california</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>micro apartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>real estate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>